--- a/testData/WebForm/WF_AvailYN_NoCondition_Test.xlsx
+++ b/testData/WebForm/WF_AvailYN_NoCondition_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -123,9 +123,6 @@
     <t>ETNotification</t>
   </si>
   <si>
-    <t>Agree, Strongly DisAgree</t>
-  </si>
-  <si>
     <t>Aavanthi@rsoft.in</t>
   </si>
   <si>
@@ -150,12 +147,6 @@
     <t>Kumar@rsoft.in</t>
   </si>
   <si>
-    <t>Agree</t>
-  </si>
-  <si>
-    <t>Strongly DisAgree</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
@@ -180,16 +171,58 @@
     <t>WF_AvailYN_NoCondition</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>MC_Title</t>
+  </si>
+  <si>
+    <t>MC_Value</t>
+  </si>
+  <si>
+    <t>Select an option..!</t>
+  </si>
+  <si>
+    <t>Tamilnadu</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>9840038503</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
+    <t>9840020824</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>0</t>
+    <t>9840096773</t>
   </si>
 </sst>
 </file>
@@ -528,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,7 +579,7 @@
     <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.36328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
@@ -562,11 +595,13 @@
     <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
     <col min="27" max="27" customWidth="true" width="17.81640625"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="22.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -649,16 +684,22 @@
         <v>32</v>
       </c>
       <c r="AB1" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AC1" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="AD1" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="AE1" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AF1" t="s" s="0">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -666,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>13</v>
@@ -674,8 +715,8 @@
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="0">
-        <v>1234567890</v>
+      <c r="F2" t="s" s="0">
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -693,58 +734,64 @@
         <v>14</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="0">
         <v>19</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s" s="0">
         <v>19</v>
       </c>
       <c r="S2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s" s="0">
         <v>46</v>
-      </c>
-      <c r="T2" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="U2" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s" s="0">
-        <v>49</v>
       </c>
       <c r="X2" t="s" s="0">
         <v>19</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AA2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AD2" t="s" s="0">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -752,7 +799,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>13</v>
@@ -767,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>10</v>
@@ -779,13 +826,19 @@
         <v>14</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="AC3" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AD3" t="s" s="0">
+        <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -793,7 +846,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>13</v>
@@ -808,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>10</v>
@@ -820,13 +873,19 @@
         <v>14</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="AC4" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AD4" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -834,7 +893,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>13</v>
@@ -849,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>10</v>
@@ -861,13 +920,19 @@
         <v>14</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="AC5" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AD5" t="s" s="0">
+        <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -875,7 +940,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>13</v>
@@ -890,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>10</v>
@@ -902,13 +967,19 @@
         <v>14</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="AC6" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AD6" t="s" s="0">
+        <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -916,7 +987,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>13</v>
@@ -931,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>10</v>
@@ -943,13 +1014,19 @@
         <v>14</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="AC7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AD7" t="s" s="0">
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -957,7 +1034,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>13</v>
@@ -972,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>10</v>
@@ -984,13 +1061,19 @@
         <v>14</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="AC8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AD8" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -998,7 +1081,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>13</v>
@@ -1013,7 +1096,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>10</v>
@@ -1025,13 +1108,19 @@
         <v>14</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="AC9" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AD9" t="s" s="0">
+        <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1128,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>13</v>
@@ -1054,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>10</v>
@@ -1066,10 +1155,16 @@
         <v>14</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="AC10" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AD10" t="s" s="0">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
